--- a/BenchmarkModels/Boehm_JProteomeRes2014/General_info.xlsx
+++ b/BenchmarkModels/Boehm_JProteomeRes2014/General_info.xlsx
@@ -392,12 +392,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -415,8 +415,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
